--- a/MFCcontrol/bin/Debug/GasFlow.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow.xlsx
@@ -141,7 +141,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05"/>
@@ -266,7 +266,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.05" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1000</v>

--- a/MFCcontrol/bin/Debug/GasFlow.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16378" windowHeight="8202"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,18 +416,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375"/>
     <col min="2" max="2" width="8"/>
     <col min="3" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="52.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -480,7 +480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -590,18 +590,21 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.15</v>
       </c>
@@ -612,12 +615,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-1</v>
       </c>

--- a/MFCcontrol/bin/Debug/GasFlow.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow.xlsx
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
@@ -613,6 +613,9 @@
       </c>
       <c r="H7">
         <v>50</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">

--- a/MFCcontrol/bin/Debug/GasFlow.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -593,41 +593,93 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.05</v>
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.1</v>
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.15</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-    </row>
+    <row r="8" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/MFCcontrol/bin/Debug/GasFlow.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -617,67 +617,15 @@
     </row>
     <row r="5" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.2</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.4</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-    </row>
+    <row r="7" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
